--- a/resources/script/mapping/sampleMapping/SampleMappings_07.xlsx
+++ b/resources/script/mapping/sampleMapping/SampleMappings_07.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sagportal-my.sharepoint.com/personal/ck_softwareag_com/Documents/intern/Products/Cumulocity/solutions/generic-mqtt-mapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{5005D566-A020-684D-A16B-C68C68329918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E075378-58D5-1048-8681-23C41A617FD3}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{5005D566-A020-684D-A16B-C68C68329918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{511724D5-A183-2F4D-B0F5-26BBE006DC94}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1310,8 +1310,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="142" workbookViewId="0">
+      <selection activeCell="G22" sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
